--- a/데이터 테이블/테이블 자료형 및 설정.xlsx
+++ b/데이터 테이블/테이블 자료형 및 설정.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alenj\OneDrive\바탕 화면\이정빈-대학교\개발 프로젝트\MyCloset\데이터 테이블\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29DF2EF7-D59D-4C06-9E4A-371F91C99AC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B39A5659-D4C2-4C71-9C3B-D83A20A57B88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="2040" windowWidth="11970" windowHeight="11385" activeTab="5" xr2:uid="{D60D955D-ABB6-42DF-80A3-CFFCD757CDC9}"/>
+    <workbookView xWindow="-15" yWindow="75" windowWidth="16890" windowHeight="11385" activeTab="4" xr2:uid="{D60D955D-ABB6-42DF-80A3-CFFCD757CDC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Member" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="136">
   <si>
     <t>필드명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,9 +206,6 @@
     <t>DATE</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>DATETIME</t>
   </si>
   <si>
@@ -220,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>남자: 0 / 여자: 1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>옷 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -273,16 +266,10 @@
   </si>
   <si>
     <t>UNSIGNED TINYINT</t>
-  </si>
-  <si>
-    <t>UNSIGNED TINYINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UNSIGNED SMALLINT</t>
-  </si>
-  <si>
-    <t>UNSIGNED SMALLINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -305,188 +292,257 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>question_content</t>
+  </si>
+  <si>
+    <t>question_date</t>
+  </si>
+  <si>
+    <t>answer_content</t>
+  </si>
+  <si>
+    <t>answer_date</t>
+  </si>
+  <si>
+    <t>qna_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>notice_title</t>
+  </si>
+  <si>
+    <t>notice_content</t>
+  </si>
+  <si>
+    <t>notice_file</t>
+  </si>
+  <si>
+    <t>notice_date</t>
+  </si>
+  <si>
+    <t>notice_key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅한 신발 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅한 상의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅한 하의 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅한 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅 설명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clothes_key에서 가져옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 등록 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 만족도</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>question_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>질문 첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_satisfaction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 첨부파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공지사항 등록 날짜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UNSIGNED INT</t>
+  </si>
+  <si>
+    <t>UNSIGNED INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULLABLE</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 저장한 뒤 서버 url에서 불러옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위(영어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>범위(한글)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>member_reg_date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-00-00 00:00:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(n)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n*영어 개수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>65535byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(7)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1~5로 FORM태그 RADIO로 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봄/여름/가을/겨울  /FORM태그 RADIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COLOR 태그로 받음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버에 사진을 저장한 뒤 서버 url에서 불러옴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바이트 수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료형</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>남자/여자 /form태그 radio 버튼으로 받기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fitting_image</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피팅 사진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>question_title</t>
-  </si>
-  <si>
-    <t>question_content</t>
-  </si>
-  <si>
-    <t>question_date</t>
-  </si>
-  <si>
-    <t>answer_content</t>
-  </si>
-  <si>
-    <t>answer_date</t>
-  </si>
-  <si>
-    <t>qna_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>notice_title</t>
-  </si>
-  <si>
-    <t>notice_content</t>
-  </si>
-  <si>
-    <t>notice_file</t>
-  </si>
-  <si>
-    <t>notice_date</t>
-  </si>
-  <si>
-    <t>notice_key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피팅한 신발 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피팅한 상의 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피팅한 하의 아이디</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피팅한 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>피팅 설명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clothes_key에서 가져옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TINYTEXT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 등록 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 만족도</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>question_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>질문 첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>답변 첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>answer_satisfaction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 내용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 첨부파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공지사항 등록 날짜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UNSIGNED INT</t>
-  </si>
-  <si>
-    <t>UNSIGNED INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NULLABLE</t>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>서버에 저장한 뒤 서버 url에서 불러옴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위(영어)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>범위(한글)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>member_reg_date</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000-00-00 00:00:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(n)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>n*영어 개수</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>65535byte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한글로 1000자까지 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEXT(3000)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>답변 제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>answer_title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -494,7 +550,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -520,10 +576,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Courier New"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="4">
@@ -546,12 +612,95 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -560,7 +709,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -576,8 +725,38 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -893,18 +1072,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7C9675D-F984-45ED-B623-D17F37EE57CC}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="24.625" customWidth="1"/>
-    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="35.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -919,28 +1098,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
       </c>
+      <c r="D2" s="5"/>
       <c r="F2" t="s">
         <v>41</v>
       </c>
@@ -956,6 +1136,13 @@
       <c r="C3" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" ref="E3" si="0">D3/3</f>
+        <v>3.3333333333333335</v>
+      </c>
       <c r="F3" t="s">
         <v>15</v>
       </c>
@@ -971,6 +1158,12 @@
       <c r="C4" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="D4">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7">
+        <v>6</v>
+      </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
@@ -981,10 +1174,17 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="D5">
+        <v>30</v>
+      </c>
+      <c r="E5">
+        <f>D5/3</f>
+        <v>10</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
@@ -996,13 +1196,20 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>125</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D6">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <f>ROUNDDOWN(6/3, 0)</f>
+        <v>2</v>
+      </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>126</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -1023,13 +1230,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1038,7 +1245,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>25</v>
@@ -1050,7 +1257,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>26</v>
@@ -1062,13 +1269,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>104</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>27</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G11" s="1"/>
     </row>
@@ -1077,29 +1284,68 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D12">
+        <v>255</v>
+      </c>
+      <c r="E12">
+        <f>ROUNDDOWN(D12/3, 0)</f>
+        <v>85</v>
+      </c>
       <c r="F12" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="1"/>
+    </row>
+    <row r="27" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+      <c r="C28" s="6"/>
+    </row>
+    <row r="29" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="6"/>
+    </row>
+    <row r="30" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1113,7 +1359,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1138,7 +1384,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
@@ -1146,7 +1392,7 @@
         <v>40</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1161,13 +1407,13 @@
         <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>44</v>
+        <v>117</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1176,10 +1422,13 @@
         <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="D4" t="s">
+        <v>121</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1188,10 +1437,10 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1203,13 +1452,13 @@
         <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -1217,13 +1466,16 @@
         <v>34</v>
       </c>
       <c r="B7" t="s">
-        <v>47</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="D7" t="s">
+        <v>120</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -1231,13 +1483,13 @@
         <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>66</v>
+        <v>104</v>
       </c>
       <c r="C8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1245,13 +1497,13 @@
         <v>36</v>
       </c>
       <c r="B9" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="C9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1259,13 +1511,13 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1273,30 +1525,34 @@
       <c r="A11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="3" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="C12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1314,7 +1570,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1594,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1358,80 +1614,92 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" t="s">
         <v>85</v>
       </c>
-      <c r="D5" t="s">
-        <v>90</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
       <c r="C7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" t="s">
+        <v>107</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1460,7 +1728,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1484,15 +1752,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1504,118 +1772,135 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>89</v>
+      </c>
+      <c r="D4" t="s">
+        <v>132</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C6" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="C7" t="s">
-        <v>97</v>
+        <v>134</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>73</v>
+      </c>
+      <c r="B9" t="s">
+        <v>86</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C10" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D10" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E12" s="1"/>
+      <c r="A11" t="s">
+        <v>98</v>
+      </c>
+      <c r="B11" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E13" s="1"/>
@@ -1630,8 +1915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B1F4C2-3F23-4392-865F-2CC947C7C9FA}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1655,15 +1940,15 @@
         <v>3</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
         <v>18</v>
@@ -1675,54 +1960,54 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D5" t="s">
         <v>107</v>
       </c>
-      <c r="D5" t="s">
-        <v>113</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1755,78 +2040,87 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC03039B-18AA-4EE7-928C-87E5D2EF5D36}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1">
+    <row r="1" spans="1:2" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A2" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" s="12">
         <f>2^32-1</f>
         <v>4294967295</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="5">
+    <row r="3" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="13">
         <v>65535</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="5">
+    <row r="4" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A4" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="13">
         <v>255</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B7" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>92</v>
-      </c>
-      <c r="B8" t="s">
-        <v>122</v>
+      <c r="B6" s="14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
